--- a/biology/Écologie/Irgarol/Irgarol.xlsx
+++ b/biology/Écologie/Irgarol/Irgarol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Irgarol 1051 ou cybutryne est un biocide pesticide algicide puissant de la famille des triazines, utilisé dans les antifoulings en remplacement du tributylétain interdit.
@@ -512,7 +524,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il agit en inhibant la photosynthèse, par blocage du transport des électrons dans le processus photosynthétique. L’Irgarol se dégage peu à peu de la peinture et tue (de très faibles doses suffisent) les organismes végétaux qui tentent de se fixer sur la coque, mais aussi des organismes appartenant au phytoplancton, au périphyton, voire les macrophytes (plantes supérieures).
 Dégradation ( ; en jours)
@@ -547,7 +561,9 @@
           <t>Écotoxicologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’effet algicide protège les coques des bateaux mais dans les milieux où l’eau est peu renouvelée ou dans les lacs fermés, il peut avoir des impacts directs importants pour le phytoplancton et le périphyton dans le milieu, voire sur les macrophytes (plantes supérieures), et des impacts indirects sur l’oxygénation et le pH du milieu ainsi que sur la chaîne alimentaire dont la photosynthèse est la base. La plante aquatique réputée la plus affectée par ce polluant (Navicula pelliculosa) est sensible à des taux de moins de 100 ng/L là où une daphnie le sera à 1 mg·L-1.
 Des effets synergiques sont possibles avec d’autres composants d’antifoulings (cuivre notamment) ou d’autres polluants.
@@ -583,7 +599,9 @@
           <t>Toxicologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On manque de donnée toxicologique pour l’homme.
 </t>
